--- a/CB-D-202108.xlsx
+++ b/CB-D-202108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3BDD17-5258-46E6-90DB-261A3D14EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0BA3F-2CD3-45F1-88DB-0B3F19AD4D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>总计</t>
   </si>
@@ -197,10 +197,6 @@
   </si>
   <si>
     <t>亚泰转债</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产14593.19</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -740,66 +736,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,6 +774,66 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,7 +1182,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1215,47 +1211,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="72" t="s">
+      <c r="A1" s="78"/>
+      <c r="B1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="70" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="68" t="s">
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="76" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="75"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
@@ -1289,11 +1285,11 @@
       <c r="P2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="69"/>
+      <c r="Q2" s="81"/>
       <c r="R2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="65"/>
+      <c r="S2" s="77"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1">
       <c r="A3" s="5"/>
@@ -1343,47 +1339,47 @@
       <c r="Q3" s="11"/>
       <c r="S3" s="23"/>
     </row>
-    <row r="4" spans="1:23" s="87" customFormat="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81">
+    <row r="4" spans="1:23" s="71" customFormat="1">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65">
         <v>123078</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="82">
-        <v>10</v>
-      </c>
-      <c r="G4" s="83">
-        <v>0</v>
-      </c>
-      <c r="H4" s="84">
-        <v>0</v>
-      </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="84">
+      <c r="F4" s="66">
+        <v>10</v>
+      </c>
+      <c r="G4" s="67">
+        <v>0</v>
+      </c>
+      <c r="H4" s="68">
+        <v>0</v>
+      </c>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="68">
         <f t="shared" ref="M4:M19" si="0">J4*L4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="85" t="e">
+      <c r="N4" s="69" t="e">
         <f t="shared" ref="N4:N29" si="1">(J4-K4)/K4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="84">
+      <c r="O4" s="68">
         <v>505</v>
       </c>
-      <c r="P4" s="85">
+      <c r="P4" s="69">
         <f t="shared" ref="P4:P24" si="2">M4/$M$32</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="S4" s="88"/>
-      <c r="W4" s="87" t="s">
+      <c r="Q4" s="70"/>
+      <c r="S4" s="72"/>
+      <c r="W4" s="71" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1422,7 +1418,7 @@
         <v>0.16700201207243454</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O4:O23" si="3">(J5-K5)*L5</f>
+        <f t="shared" ref="O5:O23" si="3">(J5-K5)*L5</f>
         <v>331.99999999999989</v>
       </c>
       <c r="P5" s="27">
@@ -1819,9 +1815,7 @@
         <f t="shared" si="2"/>
         <v>7.0809914626344089E-2</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q13" s="9"/>
       <c r="S13" s="28"/>
     </row>
     <row r="14" spans="1:23" s="60" customFormat="1">
@@ -1849,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="55">
@@ -1871,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S14" s="61"/>
     </row>
@@ -1882,7 +1876,7 @@
         <v>113044</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="16">
         <v>10</v>
@@ -1930,7 +1924,7 @@
         <v>127034</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="16">
         <v>10</v>
@@ -1971,56 +1965,58 @@
       <c r="Q16" s="9"/>
       <c r="S16" s="28"/>
     </row>
-    <row r="17" spans="1:19" s="87" customFormat="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="89">
+    <row r="17" spans="1:19" s="71" customFormat="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="63">
+        <v>5</v>
+      </c>
+      <c r="C17" s="73">
         <v>44420</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="65">
         <v>123078</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="82">
-        <v>0</v>
-      </c>
-      <c r="G17" s="83">
-        <v>0</v>
-      </c>
-      <c r="H17" s="84">
+      <c r="F17" s="66">
+        <v>0</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0</v>
+      </c>
+      <c r="H17" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I17" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82">
-        <v>0</v>
-      </c>
-      <c r="L17" s="82">
-        <v>0</v>
-      </c>
-      <c r="M17" s="84">
+      <c r="I17" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66">
+        <v>0</v>
+      </c>
+      <c r="L17" s="66">
+        <v>0</v>
+      </c>
+      <c r="M17" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N17" s="85" t="e">
+      <c r="N17" s="69" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="84">
+      <c r="O17" s="68">
         <f>(J17-K17)*L17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="86"/>
-      <c r="S17" s="88"/>
+      <c r="Q17" s="70"/>
+      <c r="S17" s="72"/>
     </row>
     <row r="18" spans="1:19">
       <c r="B18" s="19"/>
@@ -2035,14 +2031,14 @@
         <v>10</v>
       </c>
       <c r="G18" s="21">
-        <v>0</v>
+        <v>97.054000000000002</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>970.54</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13">
@@ -2390,15 +2386,15 @@
       <c r="G30" s="37"/>
       <c r="H30" s="36">
         <f>SUM(H3:H18)</f>
-        <v>0</v>
+        <v>970.54</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="62">
+      <c r="K30" s="74">
         <f>SUMPRODUCT((K3:K28)*(L3:L28))</f>
         <v>13796.249999999998</v>
       </c>
-      <c r="L30" s="63"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="39">
         <f>SUM(M3:M29)</f>
         <v>14536.099999999999</v>
@@ -2605,7 +2601,7 @@
     </row>
     <row r="23" spans="4:4" ht="16.5">
       <c r="D23" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
